--- a/Multi-taxa_data/PLITs/extraction/PLIT_HI.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_HI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6732102-CA61-419C-BFB7-111F594D5CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390D3FF7-4DD5-4CA6-81B4-E66074C6936D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="2" r:id="rId1"/>
@@ -2843,7 +2843,9 @@
   </sheetPr>
   <dimension ref="A1:X235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="C234" sqref="C234"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3480,7 +3482,7 @@
       </c>
       <c r="N19" s="21">
         <f>C234-SUMIF(B:B,"missing",C:C)</f>
-        <v>2757</v>
+        <v>0</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -7357,10 +7359,7 @@
       <c r="A234" s="12">
         <v>2807</v>
       </c>
-      <c r="C234" s="12">
-        <f>SUM(C5:C233)</f>
-        <v>2757</v>
-      </c>
+      <c r="C234" s="12"/>
       <c r="K234" s="7" t="s">
         <v>161</v>
       </c>
@@ -7382,7 +7381,9 @@
   </sheetPr>
   <dimension ref="A1:X269"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="C268" sqref="C268"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8018,7 +8019,7 @@
       </c>
       <c r="N19" s="25">
         <f>C268-SUMIF(B:B,"missing",C:C)</f>
-        <v>2715</v>
+        <v>0</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -12537,10 +12538,7 @@
       <c r="A268" s="12">
         <v>2741</v>
       </c>
-      <c r="C268" s="12">
-        <f>SUM(C5:C267)</f>
-        <v>2715</v>
-      </c>
+      <c r="C268" s="12"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="12" t="s">
@@ -12559,7 +12557,9 @@
   </sheetPr>
   <dimension ref="A1:X273"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A263" workbookViewId="0">
+      <selection activeCell="C272" sqref="C272"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13176,7 +13176,7 @@
       </c>
       <c r="N19" s="21">
         <f>C272-SUMIF(B5:B263,"missing",C5:C263)</f>
-        <v>2681</v>
+        <v>0</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -13220,7 +13220,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="12">
         <v>217</v>
       </c>
@@ -13311,7 +13311,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>257</v>
       </c>
@@ -13329,7 +13329,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>260</v>
       </c>
@@ -13347,7 +13347,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>267</v>
       </c>
@@ -13365,7 +13365,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>269</v>
       </c>
@@ -13383,7 +13383,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>270</v>
       </c>
@@ -13401,7 +13401,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>287</v>
       </c>
@@ -13419,7 +13419,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>327</v>
       </c>
@@ -13437,7 +13437,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>334</v>
       </c>
@@ -13455,7 +13455,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>335</v>
       </c>
@@ -13473,7 +13473,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>337</v>
       </c>
@@ -13491,7 +13491,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>339</v>
       </c>
@@ -13509,7 +13509,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <v>342</v>
       </c>
@@ -13527,7 +13527,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
         <v>350</v>
       </c>
@@ -13545,7 +13545,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <v>357</v>
       </c>
@@ -13563,7 +13563,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
         <v>361</v>
       </c>
@@ -13581,7 +13581,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
         <v>371</v>
       </c>
@@ -13599,7 +13599,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
         <v>380</v>
       </c>
@@ -13617,7 +13617,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
         <v>392</v>
       </c>
@@ -13633,7 +13633,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
         <v>407</v>
       </c>
@@ -13651,7 +13651,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
         <v>423</v>
       </c>
@@ -13669,7 +13669,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>426</v>
       </c>
@@ -13687,7 +13687,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
         <v>430</v>
       </c>
@@ -13705,7 +13705,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>432</v>
       </c>
@@ -13723,7 +13723,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>434</v>
       </c>
@@ -13741,7 +13741,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <v>454</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <v>467</v>
       </c>
@@ -13777,7 +13777,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
         <v>470</v>
       </c>
@@ -13795,7 +13795,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
         <v>496</v>
       </c>
@@ -13813,7 +13813,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="12">
         <v>502</v>
       </c>
@@ -13831,7 +13831,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="12">
         <v>505</v>
       </c>
@@ -13849,7 +13849,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="12">
         <v>507</v>
       </c>
@@ -13867,7 +13867,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="12">
         <v>510</v>
       </c>
@@ -13885,7 +13885,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="12">
         <v>512</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="12">
         <v>523</v>
       </c>
@@ -13921,7 +13921,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="12">
         <v>539</v>
       </c>
@@ -13939,7 +13939,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="12">
         <v>541</v>
       </c>
@@ -13957,7 +13957,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="12">
         <v>548</v>
       </c>
@@ -13975,7 +13975,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="12">
         <v>551</v>
       </c>
@@ -13991,7 +13991,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="12">
         <v>557</v>
       </c>
@@ -14009,7 +14009,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="12">
         <v>577</v>
       </c>
@@ -14027,7 +14027,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="12">
         <v>589</v>
       </c>
@@ -14045,7 +14045,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="12">
         <v>588</v>
       </c>
@@ -14063,7 +14063,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="12">
         <v>591</v>
       </c>
@@ -14081,7 +14081,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="12">
         <v>596</v>
       </c>
@@ -14099,7 +14099,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="12">
         <v>652</v>
       </c>
@@ -14117,7 +14117,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="12">
         <v>655</v>
       </c>
@@ -14135,7 +14135,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
         <v>659</v>
       </c>
@@ -14153,7 +14153,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
         <v>664</v>
       </c>
@@ -14171,7 +14171,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="12">
         <v>669</v>
       </c>
@@ -14189,7 +14189,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="12">
         <v>673</v>
       </c>
@@ -14207,7 +14207,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="12">
         <v>675</v>
       </c>
@@ -14225,7 +14225,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="12">
         <v>681</v>
       </c>
@@ -14246,7 +14246,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="12">
         <v>730</v>
       </c>
@@ -14264,7 +14264,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="12">
         <v>773</v>
       </c>
@@ -14282,7 +14282,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="12">
         <v>774</v>
       </c>
@@ -14300,7 +14300,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="12">
         <v>775</v>
       </c>
@@ -14318,7 +14318,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="12">
         <v>791</v>
       </c>
@@ -14336,7 +14336,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="12">
         <v>865</v>
       </c>
@@ -14354,7 +14354,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="12">
         <v>919</v>
       </c>
@@ -14375,7 +14375,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="12">
         <v>974</v>
       </c>
@@ -14393,7 +14393,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="12">
         <v>978</v>
       </c>
@@ -14409,7 +14409,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="12">
         <v>983</v>
       </c>
@@ -14430,7 +14430,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="12">
         <v>991</v>
       </c>
@@ -14448,7 +14448,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="12">
         <v>1004</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="12">
         <v>1022</v>
       </c>
@@ -14484,7 +14484,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="12">
         <v>1084</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="12">
         <v>1092</v>
       </c>
@@ -14520,7 +14520,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="12">
         <v>1133</v>
       </c>
@@ -14538,7 +14538,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="12">
         <v>1137</v>
       </c>
@@ -14556,7 +14556,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="12">
         <v>1142</v>
       </c>
@@ -14574,7 +14574,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="12">
         <v>1152</v>
       </c>
@@ -14592,7 +14592,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="12">
         <v>1154</v>
       </c>
@@ -14610,7 +14610,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="12">
         <v>1200</v>
       </c>
@@ -14628,7 +14628,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="12">
         <v>1211</v>
       </c>
@@ -14646,7 +14646,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="12">
         <v>1250</v>
       </c>
@@ -14664,7 +14664,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="12">
         <v>1255</v>
       </c>
@@ -14682,7 +14682,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="12">
         <v>1269</v>
       </c>
@@ -14700,7 +14700,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="12">
         <v>1273</v>
       </c>
@@ -14718,7 +14718,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="12">
         <v>1275</v>
       </c>
@@ -14736,7 +14736,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="12">
         <v>1301</v>
       </c>
@@ -14754,7 +14754,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="12">
         <v>1310</v>
       </c>
@@ -14775,7 +14775,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="12">
         <v>1328</v>
       </c>
@@ -14793,7 +14793,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="12">
         <v>1336</v>
       </c>
@@ -14811,7 +14811,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="12">
         <v>1343</v>
       </c>
@@ -14827,7 +14827,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="12">
         <v>1347</v>
       </c>
@@ -14845,7 +14845,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="12">
         <v>1367</v>
       </c>
@@ -14863,7 +14863,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="12">
         <v>1368</v>
       </c>
@@ -14881,7 +14881,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="12">
         <v>1372</v>
       </c>
@@ -14899,7 +14899,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="12">
         <v>1374</v>
       </c>
@@ -14917,7 +14917,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="12">
         <v>1403</v>
       </c>
@@ -14935,7 +14935,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="12">
         <v>1407</v>
       </c>
@@ -14953,7 +14953,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="12">
         <v>1413</v>
       </c>
@@ -14971,7 +14971,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="12">
         <v>1415</v>
       </c>
@@ -14992,7 +14992,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="12">
         <v>1424</v>
       </c>
@@ -15010,7 +15010,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="12">
         <v>1434</v>
       </c>
@@ -15028,7 +15028,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="12">
         <v>1442</v>
       </c>
@@ -15046,7 +15046,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="12">
         <v>1448</v>
       </c>
@@ -15064,7 +15064,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="12">
         <v>1450</v>
       </c>
@@ -15082,7 +15082,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="12">
         <v>1455</v>
       </c>
@@ -15100,7 +15100,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="12">
         <v>1474</v>
       </c>
@@ -15118,7 +15118,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="12">
         <v>1478</v>
       </c>
@@ -15136,7 +15136,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="12">
         <v>1483</v>
       </c>
@@ -15152,7 +15152,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="12">
         <v>1486</v>
       </c>
@@ -15170,7 +15170,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="12">
         <v>1488</v>
       </c>
@@ -15188,7 +15188,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="12">
         <v>1491</v>
       </c>
@@ -15206,7 +15206,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="12">
         <v>1493</v>
       </c>
@@ -15224,7 +15224,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="12">
         <v>1511</v>
       </c>
@@ -15242,7 +15242,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="12">
         <v>1513</v>
       </c>
@@ -15260,7 +15260,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="12">
         <v>1515</v>
       </c>
@@ -15278,7 +15278,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="12">
         <v>1521</v>
       </c>
@@ -15296,7 +15296,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="12">
         <v>1526</v>
       </c>
@@ -15314,7 +15314,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="12">
         <v>1528</v>
       </c>
@@ -15332,7 +15332,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="12">
         <v>1529</v>
       </c>
@@ -15350,7 +15350,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="12">
         <v>1556</v>
       </c>
@@ -15368,7 +15368,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="12">
         <v>1563</v>
       </c>
@@ -15386,7 +15386,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="12">
         <v>1565</v>
       </c>
@@ -15404,7 +15404,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="12">
         <v>1568</v>
       </c>
@@ -15422,7 +15422,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="12">
         <v>1571</v>
       </c>
@@ -15440,7 +15440,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="12">
         <v>1573</v>
       </c>
@@ -15461,7 +15461,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="12">
         <v>1579</v>
       </c>
@@ -15479,7 +15479,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="12">
         <v>1581</v>
       </c>
@@ -15495,7 +15495,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="12">
         <v>1582</v>
       </c>
@@ -15513,7 +15513,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="12">
         <v>1588</v>
       </c>
@@ -15529,7 +15529,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="12">
         <v>1591</v>
       </c>
@@ -15547,7 +15547,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="12">
         <v>1601</v>
       </c>
@@ -15565,7 +15565,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="12">
         <v>1606</v>
       </c>
@@ -15583,7 +15583,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="12">
         <v>1623</v>
       </c>
@@ -15601,7 +15601,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="12">
         <v>1644</v>
       </c>
@@ -15619,7 +15619,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="12">
         <v>1649</v>
       </c>
@@ -15637,7 +15637,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="12">
         <v>1651</v>
       </c>
@@ -15655,7 +15655,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="12">
         <v>1672</v>
       </c>
@@ -15673,7 +15673,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="12">
         <v>1675</v>
       </c>
@@ -15691,7 +15691,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="12">
         <v>1697</v>
       </c>
@@ -15709,7 +15709,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="12">
         <v>1711</v>
       </c>
@@ -15727,7 +15727,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="12">
         <v>1733</v>
       </c>
@@ -15745,7 +15745,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="12">
         <v>1751</v>
       </c>
@@ -15763,7 +15763,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="12">
         <v>1758</v>
       </c>
@@ -15781,7 +15781,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="12">
         <v>1764</v>
       </c>
@@ -15799,7 +15799,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="12">
         <v>1766</v>
       </c>
@@ -15817,7 +15817,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="12">
         <v>1772</v>
       </c>
@@ -15835,7 +15835,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="12">
         <v>1778</v>
       </c>
@@ -15853,7 +15853,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="12">
         <v>1779</v>
       </c>
@@ -15869,7 +15869,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="12">
         <v>1785</v>
       </c>
@@ -15887,7 +15887,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="12">
         <v>1788</v>
       </c>
@@ -15905,7 +15905,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="12">
         <v>1804</v>
       </c>
@@ -15923,7 +15923,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="12">
         <v>1810</v>
       </c>
@@ -15941,7 +15941,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="12">
         <v>1812</v>
       </c>
@@ -15959,7 +15959,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="12">
         <v>1828</v>
       </c>
@@ -15977,7 +15977,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="12">
         <v>1837</v>
       </c>
@@ -15992,7 +15992,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="12">
         <v>1870</v>
       </c>
@@ -16013,7 +16013,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="12">
         <v>1871</v>
       </c>
@@ -16028,7 +16028,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="12">
         <v>1884</v>
       </c>
@@ -16046,7 +16046,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="12">
         <v>1887</v>
       </c>
@@ -16064,7 +16064,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="12">
         <v>1893</v>
       </c>
@@ -16082,7 +16082,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="12">
         <v>1900</v>
       </c>
@@ -16100,7 +16100,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="12">
         <v>1904</v>
       </c>
@@ -16118,7 +16118,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="12">
         <v>1909</v>
       </c>
@@ -16136,7 +16136,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="12">
         <v>1918</v>
       </c>
@@ -16154,7 +16154,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="12">
         <v>1932</v>
       </c>
@@ -16175,7 +16175,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="12">
         <v>1960</v>
       </c>
@@ -16196,7 +16196,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="12">
         <v>1995</v>
       </c>
@@ -16214,7 +16214,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="12">
         <v>2000</v>
       </c>
@@ -16235,7 +16235,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="12">
         <v>2062</v>
       </c>
@@ -16253,7 +16253,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="12">
         <v>2066</v>
       </c>
@@ -16271,7 +16271,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="12">
         <v>2073</v>
       </c>
@@ -16289,7 +16289,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="12">
         <v>2083</v>
       </c>
@@ -16307,7 +16307,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="12">
         <v>2086</v>
       </c>
@@ -16325,7 +16325,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="12">
         <v>2109</v>
       </c>
@@ -16343,7 +16343,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="12">
         <v>2114</v>
       </c>
@@ -16361,7 +16361,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="12">
         <v>2143</v>
       </c>
@@ -16379,7 +16379,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="12">
         <v>2174</v>
       </c>
@@ -16400,7 +16400,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="12">
         <v>2201</v>
       </c>
@@ -16418,7 +16418,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="12">
         <v>2203</v>
       </c>
@@ -16436,7 +16436,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="12">
         <v>2204</v>
       </c>
@@ -16454,7 +16454,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="12">
         <v>2209</v>
       </c>
@@ -16472,7 +16472,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="12">
         <v>2214</v>
       </c>
@@ -16490,7 +16490,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="12">
         <v>2217</v>
       </c>
@@ -16511,7 +16511,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="12">
         <v>2221</v>
       </c>
@@ -16532,7 +16532,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="12">
         <v>2225</v>
       </c>
@@ -16551,7 +16551,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="12">
         <v>2229</v>
       </c>
@@ -16569,7 +16569,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="12">
         <v>2230</v>
       </c>
@@ -16587,7 +16587,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="12">
         <v>2237</v>
       </c>
@@ -16605,7 +16605,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="12">
         <v>2238</v>
       </c>
@@ -16623,7 +16623,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="12">
         <v>2256</v>
       </c>
@@ -16641,7 +16641,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="12">
         <v>2258</v>
       </c>
@@ -16659,7 +16659,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="12">
         <v>2268</v>
       </c>
@@ -16677,7 +16677,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="12">
         <v>2290</v>
       </c>
@@ -16695,7 +16695,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="12">
         <v>2351</v>
       </c>
@@ -16713,7 +16713,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="12">
         <v>2355</v>
       </c>
@@ -16731,7 +16731,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="12">
         <v>2356</v>
       </c>
@@ -16749,7 +16749,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="12">
         <v>2393</v>
       </c>
@@ -16770,7 +16770,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="12">
         <v>2397</v>
       </c>
@@ -16788,7 +16788,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="12">
         <v>2411</v>
       </c>
@@ -16806,7 +16806,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="12">
         <v>2414</v>
       </c>
@@ -16824,7 +16824,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="12">
         <v>2421</v>
       </c>
@@ -16840,7 +16840,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="12">
         <v>2423</v>
       </c>
@@ -16858,7 +16858,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="12">
         <v>2433</v>
       </c>
@@ -16879,7 +16879,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="12">
         <v>2439</v>
       </c>
@@ -16897,7 +16897,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="12">
         <v>2450</v>
       </c>
@@ -16915,7 +16915,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="12">
         <v>2461</v>
       </c>
@@ -16933,7 +16933,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="12">
         <v>2465</v>
       </c>
@@ -16951,7 +16951,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="12">
         <v>2472</v>
       </c>
@@ -16969,7 +16969,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="12">
         <v>2476</v>
       </c>
@@ -16987,7 +16987,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="12">
         <v>2477</v>
       </c>
@@ -17005,7 +17005,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="12">
         <v>2490</v>
       </c>
@@ -17023,7 +17023,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="12">
         <v>2494</v>
       </c>
@@ -17044,7 +17044,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="12">
         <v>2521</v>
       </c>
@@ -17062,7 +17062,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="12">
         <v>2528</v>
       </c>
@@ -17080,7 +17080,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="12">
         <v>2532</v>
       </c>
@@ -17098,7 +17098,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="12">
         <v>2534</v>
       </c>
@@ -17116,7 +17116,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="12">
         <v>2539</v>
       </c>
@@ -17134,7 +17134,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="12">
         <v>2543</v>
       </c>
@@ -17152,7 +17152,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="12">
         <v>2555</v>
       </c>
@@ -17170,7 +17170,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="12">
         <v>2558</v>
       </c>
@@ -17188,7 +17188,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="12">
         <v>2566</v>
       </c>
@@ -17206,7 +17206,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="12">
         <v>2568</v>
       </c>
@@ -17227,7 +17227,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="12">
         <v>2573</v>
       </c>
@@ -17245,7 +17245,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="12">
         <v>2576</v>
       </c>
@@ -17263,7 +17263,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="12">
         <v>2592</v>
       </c>
@@ -17279,7 +17279,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="12">
         <v>2595</v>
       </c>
@@ -17295,7 +17295,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="12">
         <v>2597</v>
       </c>
@@ -17313,7 +17313,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="12">
         <v>2602</v>
       </c>
@@ -17331,7 +17331,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="12">
         <v>2606</v>
       </c>
@@ -17349,7 +17349,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="12">
         <v>2608</v>
       </c>
@@ -17367,7 +17367,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="12">
         <v>2610</v>
       </c>
@@ -17385,7 +17385,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="12">
         <v>2627</v>
       </c>
@@ -17403,7 +17403,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="12">
         <v>2630</v>
       </c>
@@ -17421,7 +17421,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="12">
         <v>2636</v>
       </c>
@@ -17439,7 +17439,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="12">
         <v>2641</v>
       </c>
@@ -17457,7 +17457,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="12">
         <v>2643</v>
       </c>
@@ -17475,7 +17475,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="12">
         <v>2652</v>
       </c>
@@ -17493,7 +17493,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="12">
         <v>2656</v>
       </c>
@@ -17511,7 +17511,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="12">
         <v>2657</v>
       </c>
@@ -17532,7 +17532,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="12">
         <v>2667</v>
       </c>
@@ -17550,7 +17550,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="12">
         <v>2669</v>
       </c>
@@ -17568,7 +17568,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="12">
         <v>2673</v>
       </c>
@@ -17586,7 +17586,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="12">
         <v>2680</v>
       </c>
@@ -17604,7 +17604,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="12">
         <v>2682</v>
       </c>
@@ -17622,7 +17622,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="12">
         <v>2684</v>
       </c>
@@ -17640,7 +17640,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="12">
         <v>2688</v>
       </c>
@@ -17658,7 +17658,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="12">
         <v>2699</v>
       </c>
@@ -17674,7 +17674,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="12">
         <v>2701</v>
       </c>
@@ -17692,7 +17692,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="12">
         <v>2713</v>
       </c>
@@ -17710,7 +17710,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="12">
         <v>2716</v>
       </c>
@@ -17728,7 +17728,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="12">
         <v>2717</v>
       </c>
@@ -17746,16 +17746,13 @@
         <v>406</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="12">
         <v>2725</v>
       </c>
-      <c r="C272" s="12">
-        <f>SUM(C5:C271)</f>
-        <v>2681</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C272" s="12"/>
+    </row>
+    <row r="273" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="12" t="s">
         <v>162</v>
       </c>
@@ -17772,7 +17769,9 @@
   </sheetPr>
   <dimension ref="A1:X252"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="C249" sqref="C249"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -22607,10 +22606,7 @@
       <c r="A249" s="12">
         <v>3322</v>
       </c>
-      <c r="C249" s="12">
-        <f>SUM(C5:C248)</f>
-        <v>3282</v>
-      </c>
+      <c r="C249" s="12"/>
       <c r="M249" s="7"/>
       <c r="N249" s="7"/>
       <c r="O249" s="7"/>
@@ -22653,7 +22649,9 @@
   </sheetPr>
   <dimension ref="A1:X265"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A257" workbookViewId="0">
+      <selection activeCell="C264" sqref="C264"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -23265,7 +23263,7 @@
       </c>
       <c r="N19" s="21">
         <f>C264-SUMIF(B5:B263,"missing",C5:C263)</f>
-        <v>2515</v>
+        <v>0</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -26511,7 +26509,7 @@
       </c>
       <c r="C196" s="12">
         <f t="shared" si="0"/>
-        <v>-51</v>
+        <v>49</v>
       </c>
       <c r="D196" s="12" t="s">
         <v>25</v>
@@ -26522,7 +26520,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="12">
-        <v>1942</v>
+        <v>2042</v>
       </c>
       <c r="B197" s="12" t="s">
         <v>40</v>
@@ -26540,7 +26538,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="12">
-        <v>1944</v>
+        <v>2044</v>
       </c>
       <c r="B198" s="19" t="s">
         <v>51</v>
@@ -26555,7 +26553,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="12">
-        <v>1952</v>
+        <v>2052</v>
       </c>
       <c r="B199" s="12" t="s">
         <v>9</v>
@@ -26573,7 +26571,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="12">
-        <v>1960</v>
+        <v>2060</v>
       </c>
       <c r="B200" s="12" t="s">
         <v>11</v>
@@ -26591,7 +26589,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="12">
-        <v>1965</v>
+        <v>2065</v>
       </c>
       <c r="B201" s="19" t="s">
         <v>51</v>
@@ -26606,7 +26604,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="12">
-        <v>1969</v>
+        <v>2069</v>
       </c>
       <c r="B202" s="12" t="s">
         <v>11</v>
@@ -26624,7 +26622,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="12">
-        <v>1970</v>
+        <v>2070</v>
       </c>
       <c r="B203" s="12" t="s">
         <v>11</v>
@@ -26642,7 +26640,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="12">
-        <v>1976</v>
+        <v>2076</v>
       </c>
       <c r="B204" s="12" t="s">
         <v>9</v>
@@ -26660,7 +26658,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="12">
-        <v>1977</v>
+        <v>2077</v>
       </c>
       <c r="B205" s="19" t="s">
         <v>51</v>
@@ -26676,7 +26674,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="12">
-        <v>1980</v>
+        <v>2080</v>
       </c>
       <c r="B206" s="12" t="s">
         <v>9</v>
@@ -26694,14 +26692,14 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="12">
-        <v>1992</v>
+        <v>2092</v>
       </c>
       <c r="B207" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C207" s="12">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="D207" s="19" t="s">
         <v>25</v>
@@ -27728,10 +27726,7 @@
       <c r="A264" s="12">
         <v>2715</v>
       </c>
-      <c r="C264" s="12">
-        <f>SUM(C5:C263)</f>
-        <v>2515</v>
-      </c>
+      <c r="C264" s="12"/>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="12" t="s">
@@ -27750,7 +27745,9 @@
   </sheetPr>
   <dimension ref="A1:Y279"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="C278" sqref="C278"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -28390,7 +28387,7 @@
       <c r="L19" s="7"/>
       <c r="N19" s="21">
         <f>C278-SUMIF(B5:B277,"missing",C5:C277)</f>
-        <v>2561</v>
+        <v>0</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -32917,7 +32914,7 @@
       </c>
       <c r="C266" s="12">
         <f t="shared" si="3"/>
-        <v>-998</v>
+        <v>2</v>
       </c>
       <c r="D266" s="12" t="s">
         <v>25</v>
@@ -32928,7 +32925,7 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="12">
-        <v>1549</v>
+        <v>2549</v>
       </c>
       <c r="B267" s="12" t="s">
         <v>11</v>
@@ -32946,7 +32943,7 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="12">
-        <v>1591</v>
+        <v>2591</v>
       </c>
       <c r="B268" s="12" t="s">
         <v>11</v>
@@ -32964,14 +32961,14 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="12">
-        <v>1595</v>
+        <v>2595</v>
       </c>
       <c r="B269" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C269" s="12">
         <f t="shared" si="3"/>
-        <v>1005</v>
+        <v>5</v>
       </c>
       <c r="D269" s="12" t="s">
         <v>25</v>
@@ -33128,10 +33125,7 @@
       <c r="A278" s="12">
         <v>2671</v>
       </c>
-      <c r="C278" s="12">
-        <f>SUM(C5:C277)</f>
-        <v>2561</v>
-      </c>
+      <c r="C278" s="12"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="12" t="s">

--- a/Multi-taxa_data/PLITs/extraction/PLIT_HI.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_HI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390D3FF7-4DD5-4CA6-81B4-E66074C6936D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BEF881-CCEB-4484-8E60-845AD38713AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12557,8 +12557,8 @@
   </sheetPr>
   <dimension ref="A1:X273"/>
   <sheetViews>
-    <sheetView topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="C272" sqref="C272"/>
+    <sheetView topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="E223" sqref="E223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12578,7 +12578,7 @@
     <col min="17" max="25" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -12596,7 +12596,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -12614,7 +12614,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
@@ -12633,7 +12633,7 @@
       <c r="L3" s="4"/>
       <c r="R3" s="7"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -12687,7 +12687,7 @@
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>44</v>
       </c>
@@ -12709,11 +12709,11 @@
       </c>
       <c r="O5" s="15">
         <f>SUMIF(B:B,"hard_coral",C:C)</f>
-        <v>1633</v>
+        <v>1643</v>
       </c>
       <c r="P5" s="16">
         <f t="shared" ref="P5:P15" si="1">(O5/$O$16)*100</f>
-        <v>60.910108168593815</v>
+        <v>61.283103319656838</v>
       </c>
       <c r="R5" s="12" t="s">
         <v>11</v>
@@ -12727,7 +12727,7 @@
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>49</v>
       </c>
@@ -12749,11 +12749,11 @@
       </c>
       <c r="O6" s="15">
         <f>SUMIF(B:B,"algae",C:C)</f>
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="P6" s="16">
         <f t="shared" si="1"/>
-        <v>32.0029839612085</v>
+        <v>31.62998881014547</v>
       </c>
       <c r="R6" s="7" t="s">
         <v>14</v>
@@ -12762,7 +12762,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>68</v>
       </c>
@@ -12797,7 +12797,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>101</v>
       </c>
@@ -12836,7 +12836,7 @@
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>104</v>
       </c>
@@ -12875,7 +12875,7 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>106</v>
       </c>
@@ -12910,7 +12910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>141</v>
       </c>
@@ -12945,7 +12945,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>147</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>150</v>
       </c>
@@ -13018,7 +13018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>153</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>161</v>
       </c>
@@ -13088,7 +13088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>165</v>
       </c>
@@ -13112,10 +13112,10 @@
       </c>
       <c r="P16" s="22">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>168</v>
       </c>
@@ -13136,7 +13136,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>170</v>
       </c>
@@ -13157,7 +13157,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>172</v>
       </c>
@@ -13181,7 +13181,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>184</v>
       </c>
@@ -13199,7 +13199,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>203</v>
       </c>
@@ -13239,7 +13239,7 @@
       </c>
       <c r="O22" s="27"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>219</v>
       </c>
@@ -13257,7 +13257,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>221</v>
       </c>
@@ -13275,7 +13275,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>225</v>
       </c>
@@ -13293,7 +13293,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>233</v>
       </c>
@@ -14018,7 +14018,7 @@
       </c>
       <c r="C66" s="12">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>43</v>
@@ -14029,14 +14029,14 @@
     </row>
     <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="12">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="12">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>25</v>
@@ -17769,8 +17769,8 @@
   </sheetPr>
   <dimension ref="A1:X252"/>
   <sheetViews>
-    <sheetView topLeftCell="A231" workbookViewId="0">
-      <selection activeCell="C249" sqref="C249"/>
+    <sheetView topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -18536,7 +18536,7 @@
       </c>
       <c r="C26" s="12">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>43</v>
@@ -18547,14 +18547,14 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="12">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>9</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>31</v>
@@ -22649,7 +22649,7 @@
   </sheetPr>
   <dimension ref="A1:X265"/>
   <sheetViews>
-    <sheetView topLeftCell="A257" workbookViewId="0">
+    <sheetView topLeftCell="A228" workbookViewId="0">
       <selection activeCell="C264" sqref="C264"/>
     </sheetView>
   </sheetViews>
@@ -27745,8 +27745,8 @@
   </sheetPr>
   <dimension ref="A1:Y279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="C278" sqref="C278"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="A262" sqref="A262:XFD262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Multi-taxa_data/PLITs/extraction/PLIT_HI.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_HI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065F0B87-DA79-4F18-A396-9C21446DB96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4CB0DC-F9E4-4275-A923-23B2AF8614F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,14 @@
     <sheet name="S2" sheetId="6" r:id="rId5"/>
     <sheet name="S3" sheetId="7" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'D1'!$A$4:$X$235</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'D2'!$A$4:$X$269</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'D3'!$A$4:$X$273</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'S1'!$A$4:$X$250</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'S2'!$A$4:$X$265</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'S3'!$A$4:$Y$279</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4911" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4891" uniqueCount="794">
   <si>
     <t>D1</t>
   </si>
@@ -2420,6 +2428,9 @@
   </si>
   <si>
     <t>P6040571</t>
+  </si>
+  <si>
+    <t>foliose</t>
   </si>
 </sst>
 </file>
@@ -2559,7 +2570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2620,6 +2631,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2838,10 +2851,4322 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X235"/>
+  <dimension ref="A1:S235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.59765625" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" customWidth="1"/>
+    <col min="4" max="4" width="15.69921875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="8.59765625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="11.69921875" customWidth="1"/>
+    <col min="9" max="10" width="8.59765625" customWidth="1"/>
+    <col min="11" max="11" width="13.3984375" customWidth="1"/>
+    <col min="12" max="20" width="8.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="4">
+        <v>11.9</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>50</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="12">
+        <f t="shared" ref="C5:C233" si="0">A6-A5</f>
+        <v>56</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>106</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>112</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>120</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>129</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>133</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="K10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>137</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>145</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>150</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="12">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>220</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="12">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>238</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>245</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>250</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>260</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="12">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="K18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="18"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>279</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>290</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>299</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="12">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>318</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="12">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="7"/>
+      <c r="K22" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>353</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="12">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="K23" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>420</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>428</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>430</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="12">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
+        <v>475</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="12">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>550</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="12">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>583</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="12">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>633</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="12">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>656</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>658</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>665</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>670</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="K34" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>672</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>675</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>679</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="12">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>705</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>708</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="12">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <v>725</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <v>732</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <v>737</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="K42" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>743</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>747</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="12">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
+        <v>771</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="F45" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
+        <v>781</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L46" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>789</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="12">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>803</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
+        <v>812</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>818</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
+        <v>822</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
+        <v>826</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="7">
+        <v>829</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
+        <v>849</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="7">
+        <v>855</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
+        <v>862</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="7">
+        <v>865</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="7">
+        <v>870</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D58" s="17"/>
+      <c r="K58" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="7">
+        <v>875</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="7">
+        <v>900</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="12">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D60" s="17"/>
+      <c r="K60" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="7">
+        <v>924</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="7">
+        <v>927</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="12">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D62" s="17"/>
+      <c r="K62" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="7">
+        <v>946</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="7">
+        <v>951</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E64" s="7"/>
+      <c r="K64" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="7">
+        <v>966</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" s="18"/>
+      <c r="K65" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L65" s="18"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="7">
+        <v>971</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="7">
+        <v>974</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="12">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="7">
+        <v>1009</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="7">
+        <v>1013</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="12">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="7">
+        <v>1084</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="7">
+        <v>1086</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="12">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="7">
+        <v>1151</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="7">
+        <v>1163</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D73" s="17"/>
+      <c r="K73" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L73" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="7">
+        <v>1167</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="12">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="7">
+        <v>1189</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="7">
+        <v>1195</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D76" s="7"/>
+      <c r="K76" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="7">
+        <v>1198</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L77" s="7"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="7">
+        <v>1203</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L78" s="7"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="7">
+        <v>1211</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79" s="12">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="7">
+        <v>1234</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="12">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="7">
+        <v>1267</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="7">
+        <v>1271</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="7">
+        <v>1275</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="7">
+        <v>1279</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="7">
+        <v>1285</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="7">
+        <v>1292</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="7">
+        <v>1297</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="7">
+        <v>1309</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" s="12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="7">
+        <v>1318</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="7">
+        <v>1325</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="7">
+        <v>1329</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="7">
+        <v>1333</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="7">
+        <v>1340</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="12">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="7">
+        <v>1356</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="7">
+        <v>1371</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="7">
+        <v>1373</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="12">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K96" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="7">
+        <v>1396</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="12">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="7">
+        <v>1410</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C98" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" s="7">
+        <v>1418</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" s="12">
+        <v>1420</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K100" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" s="7">
+        <v>1423</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" s="7">
+        <v>1429</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K102" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" s="7">
+        <v>1435</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="12">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" s="7">
+        <v>1456</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C104" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" s="7">
+        <v>1461</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K105" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106" s="7">
+        <v>1469</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K106" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="7">
+        <v>1477</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K107" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" s="7">
+        <v>1482</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K108" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" s="7">
+        <v>1488</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K109" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L109" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110" s="7">
+        <v>1492</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K110" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111" s="7">
+        <v>1497</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K111" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112" s="7">
+        <v>1499</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K112" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113" s="7">
+        <v>1503</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K113" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114" s="7">
+        <v>1510</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K114" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A115" s="7">
+        <v>1515</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E115" s="7"/>
+      <c r="K115" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116" s="7">
+        <v>1520</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K116" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A117" s="7">
+        <v>1523</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K117" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L117" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A118" s="7">
+        <v>1531</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K118" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119" s="7">
+        <v>1533</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K119" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A120" s="7">
+        <v>1536</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K120" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A121" s="7">
+        <v>1540</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K121" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A122" s="7">
+        <v>1545</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K122" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A123" s="7">
+        <v>1551</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K123" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124" s="7">
+        <v>1579</v>
+      </c>
+      <c r="B124" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K124" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L124" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125" s="7">
+        <v>1582</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="12">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K125" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126" s="7">
+        <v>1617</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K126" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A127" s="7">
+        <v>1621</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K127" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128" s="7">
+        <v>1625</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K128" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="7">
+        <v>1628</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K129" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="7">
+        <v>1633</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C130" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K130" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="7">
+        <v>1637</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K131" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="7">
+        <v>1641</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K132" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="7">
+        <v>1644</v>
+      </c>
+      <c r="B133" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D133" s="17"/>
+      <c r="K133" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="7">
+        <v>1646</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="12">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K134" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="7">
+        <v>1668</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135" s="12">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K135" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="7">
+        <v>1706</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" s="12">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K136" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="7">
+        <v>1735</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K137" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="7">
+        <v>1740</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K138" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="7">
+        <v>1742</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="12">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K139" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="7">
+        <v>1760</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K140" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="7">
+        <v>1764</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K141" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="7">
+        <v>1769</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K142" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="7">
+        <v>1771</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" s="12">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K143" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="7">
+        <v>1800</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K144" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="7">
+        <v>1804</v>
+      </c>
+      <c r="B145" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D145" s="17"/>
+      <c r="K145" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="7">
+        <v>1806</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F146" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="K146" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="7">
+        <v>1810</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K147" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="7">
+        <v>1813</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" s="12">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K148" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="7">
+        <v>1830</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K149" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="7">
+        <v>1840</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C150" s="12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K150" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="7">
+        <v>1849</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K151" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="7">
+        <v>1859</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K152" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="7">
+        <v>1866</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" s="12">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K153" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="7">
+        <v>1888</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K154" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="7">
+        <v>1908</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155" s="12">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K155" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="7">
+        <v>1930</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K156" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="7">
+        <v>1936</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K157" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="7">
+        <v>1940</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K158" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" s="7">
+        <v>1945</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K159" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" s="7">
+        <v>1952</v>
+      </c>
+      <c r="B160" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D160" s="17"/>
+      <c r="K160" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A161" s="7">
+        <v>1955</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K161" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A162" s="7">
+        <v>1958</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" s="12">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K162" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A163" s="7">
+        <v>1999</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" s="12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K163" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L163" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A164" s="7">
+        <v>2010</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" s="12">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K164" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A165" s="7">
+        <v>2031</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D165" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K165" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A166" s="7">
+        <v>2037</v>
+      </c>
+      <c r="B166" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166" s="12">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D166" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K166" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A167" s="12">
+        <v>2070</v>
+      </c>
+      <c r="B167" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" s="12">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D167" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K167" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A168" s="12">
+        <v>2099</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C168" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D168" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K168" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A169" s="12">
+        <v>2101</v>
+      </c>
+      <c r="B169" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D169" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K169" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A170" s="12">
+        <v>2108</v>
+      </c>
+      <c r="B170" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170" s="12">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D170" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K170" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A171" s="12">
+        <v>2132</v>
+      </c>
+      <c r="B171" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C171" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D171" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K171" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A172" s="12">
+        <v>2139</v>
+      </c>
+      <c r="B172" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" s="12">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D172" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K172" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A173" s="12">
+        <v>2176</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C173" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D173" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K173" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A174" s="12">
+        <v>2181</v>
+      </c>
+      <c r="B174" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C174" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D174" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K174" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A175" s="12">
+        <v>2186</v>
+      </c>
+      <c r="B175" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D175" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K175" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A176" s="12">
+        <v>2188</v>
+      </c>
+      <c r="B176" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D176" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K176" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177" s="12">
+        <v>2195</v>
+      </c>
+      <c r="B177" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C177" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D177" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K177" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" s="12">
+        <v>2197</v>
+      </c>
+      <c r="B178" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D178" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K178" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" s="12">
+        <v>2199</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C179" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D179" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K179" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180" s="12">
+        <v>2201</v>
+      </c>
+      <c r="B180" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" s="12">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="D180" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K180" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181" s="12">
+        <v>2270</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C181" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D181" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K181" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" s="12">
+        <v>2278</v>
+      </c>
+      <c r="B182" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D182" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K182" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" s="12">
+        <v>2282</v>
+      </c>
+      <c r="B183" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C183" s="12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D183" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K183" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" s="12">
+        <v>2291</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D184" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K184" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185" s="12">
+        <v>2297</v>
+      </c>
+      <c r="B185" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D185" s="17"/>
+      <c r="K185" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A186" s="12">
+        <v>2300</v>
+      </c>
+      <c r="B186" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C186" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D186" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K186" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A187" s="12">
+        <v>2301</v>
+      </c>
+      <c r="B187" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187" s="12">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D187" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K187" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188" s="12">
+        <v>2341</v>
+      </c>
+      <c r="B188" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188" s="12">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="D188" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K188" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189" s="12">
+        <v>2400</v>
+      </c>
+      <c r="B189" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D189" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K189" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A190" s="12">
+        <v>2407</v>
+      </c>
+      <c r="B190" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C190" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D190" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K190" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A191" s="12">
+        <v>2413</v>
+      </c>
+      <c r="B191" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C191" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D191" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K191" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A192" s="12">
+        <v>2423</v>
+      </c>
+      <c r="B192" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C192" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D192" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K192" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A193" s="12">
+        <v>2428</v>
+      </c>
+      <c r="B193" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C193" s="12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D193" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K193" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A194" s="12">
+        <v>2440</v>
+      </c>
+      <c r="B194" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" s="12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D194" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K194" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A195" s="12">
+        <v>2451</v>
+      </c>
+      <c r="B195" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C195" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D195" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K195" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A196" s="12">
+        <v>2454</v>
+      </c>
+      <c r="B196" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C196" s="12">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D196" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K196" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A197" s="12">
+        <v>2480</v>
+      </c>
+      <c r="B197" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C197" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D197" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K197" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198" s="12">
+        <v>2487</v>
+      </c>
+      <c r="B198" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C198" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D198" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K198" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199" s="12">
+        <v>2493</v>
+      </c>
+      <c r="B199" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C199" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D199" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K199" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200" s="12">
+        <v>2494</v>
+      </c>
+      <c r="B200" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C200" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D200" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K200" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A201" s="12">
+        <v>2504</v>
+      </c>
+      <c r="B201" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C201" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D201" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K201" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A202" s="12">
+        <v>2507</v>
+      </c>
+      <c r="B202" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C202" s="12">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D202" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K202" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A203" s="12">
+        <v>2538</v>
+      </c>
+      <c r="B203" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C203" s="12">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D203" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K203" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A204" s="12">
+        <v>2551</v>
+      </c>
+      <c r="B204" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C204" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D204" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K204" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A205" s="12">
+        <v>2553</v>
+      </c>
+      <c r="B205" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C205" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D205" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K205" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A206" s="12">
+        <v>2558</v>
+      </c>
+      <c r="B206" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C206" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D206" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K206" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A207" s="12">
+        <v>2563</v>
+      </c>
+      <c r="B207" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207" s="12">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D207" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K207" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A208" s="12">
+        <v>2582</v>
+      </c>
+      <c r="B208" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C208" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D208" s="17"/>
+      <c r="K208" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A209" s="12">
+        <v>2586</v>
+      </c>
+      <c r="B209" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C209" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D209" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K209" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A210" s="12">
+        <v>2589</v>
+      </c>
+      <c r="B210" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C210" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D210" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K210" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A211" s="12">
+        <v>2595</v>
+      </c>
+      <c r="B211" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C211" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D211" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K211" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A212" s="12">
+        <v>2599</v>
+      </c>
+      <c r="B212" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C212" s="12">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D212" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K212" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A213" s="12">
+        <v>2617</v>
+      </c>
+      <c r="B213" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C213" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D213" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K213" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A214" s="12">
+        <v>2625</v>
+      </c>
+      <c r="B214" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C214" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D214" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K214" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A215" s="12">
+        <v>2635</v>
+      </c>
+      <c r="B215" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C215" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D215" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K215" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A216" s="12">
+        <v>2641</v>
+      </c>
+      <c r="B216" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C216" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D216" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K216" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A217" s="12">
+        <v>2642</v>
+      </c>
+      <c r="B217" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C217" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D217" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K217" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A218" s="12">
+        <v>2643</v>
+      </c>
+      <c r="B218" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C218" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D218" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K218" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A219" s="12">
+        <v>2649</v>
+      </c>
+      <c r="B219" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C219" s="12">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D219" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K219" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L219" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A220" s="12">
+        <v>2670</v>
+      </c>
+      <c r="B220" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C220" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D220" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K220" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A221" s="12">
+        <v>2675</v>
+      </c>
+      <c r="B221" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C221" s="12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D221" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K221" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A222" s="12">
+        <v>2690</v>
+      </c>
+      <c r="B222" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C222" s="12">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D222" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K222" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A223" s="12">
+        <v>2707</v>
+      </c>
+      <c r="B223" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C223" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D223" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K223" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A224" s="12">
+        <v>2710</v>
+      </c>
+      <c r="B224" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C224" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D224" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K224" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A225" s="12">
+        <v>2714</v>
+      </c>
+      <c r="B225" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C225" s="12">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D225" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K225" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A226" s="12">
+        <v>2746</v>
+      </c>
+      <c r="B226" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C226" s="12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D226" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K226" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A227" s="12">
+        <v>2757</v>
+      </c>
+      <c r="B227" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C227" s="12">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D227" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K227" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A228" s="12">
+        <v>2770</v>
+      </c>
+      <c r="B228" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C228" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D228" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K228" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A229" s="12">
+        <v>2774</v>
+      </c>
+      <c r="B229" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C229" s="12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D229" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K229" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A230" s="12">
+        <v>2783</v>
+      </c>
+      <c r="B230" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C230" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D230" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K230" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A231" s="12">
+        <v>2787</v>
+      </c>
+      <c r="B231" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C231" s="12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D231" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K231" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A232" s="12">
+        <v>2798</v>
+      </c>
+      <c r="B232" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C232" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D232" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K232" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A233" s="12">
+        <v>2802</v>
+      </c>
+      <c r="B233" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C233" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D233" s="17"/>
+      <c r="K233" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A234" s="12">
+        <v>2807</v>
+      </c>
+      <c r="C234" s="12"/>
+      <c r="K234" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A235" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A4:X235" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:X269"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C279" sqref="C279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2866,7 +7191,7 @@
         <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -2880,11 +7205,11 @@
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="4">
-        <v>11.9</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -2972,39 +7297,37 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
-        <v>50</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="12">
-        <f t="shared" ref="C5:C233" si="0">A6-A5</f>
-        <v>56</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>41</v>
-      </c>
+        <f t="shared" ref="C5:C259" si="0">A6-A5</f>
+        <v>6</v>
+      </c>
+      <c r="D5" s="17"/>
       <c r="I5" s="13"/>
       <c r="J5" s="14"/>
       <c r="K5" s="7" t="s">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O5" s="15">
         <f>SUMIF(B:B,"hard_coral",C:C)</f>
-        <v>1287</v>
+        <v>1493</v>
       </c>
       <c r="P5" s="16">
         <f t="shared" ref="P5:P15" si="1">(O5/$O$16)*100</f>
-        <v>46.681175190424376</v>
+        <v>55.255366395262776</v>
       </c>
       <c r="R5" s="12" t="s">
         <v>11</v>
       </c>
       <c r="S5" s="12">
-        <v>917</v>
+        <v>892</v>
       </c>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
@@ -3014,4542 +7337,6 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
-        <v>106</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" s="15">
-        <f>SUMIF(B:B,"algae",C:C)</f>
-        <v>917</v>
-      </c>
-      <c r="P6" s="16">
-        <f t="shared" si="1"/>
-        <v>33.260790714544797</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="S6" s="7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>112</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="15">
-        <f>SUMIF(B:B,"soft_coral",C:C)</f>
-        <v>57</v>
-      </c>
-      <c r="P7" s="16">
-        <f t="shared" si="1"/>
-        <v>2.0674646354733408</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="S7" s="7">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>120</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O8" s="15">
-        <f>SUMIF(B:B,"boulder",C:C)</f>
-        <v>32</v>
-      </c>
-      <c r="P8" s="16">
-        <f t="shared" si="1"/>
-        <v>1.1606819006166122</v>
-      </c>
-      <c r="R8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="S8" s="12">
-        <v>0</v>
-      </c>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>129</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O9" s="15">
-        <f>SUMIF(B:B,"rubble",C:C)</f>
-        <v>28</v>
-      </c>
-      <c r="P9" s="16">
-        <f t="shared" si="1"/>
-        <v>1.0155966630395359</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="S9" s="7">
-        <v>28</v>
-      </c>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>133</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="K10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="18"/>
-      <c r="N10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O10" s="15">
-        <f>SUMIF(B:B,"sand",C:C)</f>
-        <v>54</v>
-      </c>
-      <c r="P10" s="16">
-        <f t="shared" si="1"/>
-        <v>1.958650707290533</v>
-      </c>
-      <c r="R10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="S10" s="12">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>137</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="15">
-        <f>SUMIF(B:B,"sponge",C:C)</f>
-        <v>3</v>
-      </c>
-      <c r="P11" s="16">
-        <f t="shared" si="1"/>
-        <v>0.1088139281828074</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="S11" s="12">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>145</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O12" s="15">
-        <f>SUMIF(B:B,"other",C:C)</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="S12" s="7">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <v>150</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="12">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O13" s="15">
-        <f>SUMIF(B:B,"unknown",C:C)</f>
-        <v>112</v>
-      </c>
-      <c r="P13" s="16">
-        <f t="shared" si="1"/>
-        <v>4.0623866521581435</v>
-      </c>
-      <c r="R13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="S13" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>220</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="12">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L14" s="7"/>
-      <c r="N14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O14" s="15">
-        <f>SUMIF(B:B,"shadow",C:C)</f>
-        <v>267</v>
-      </c>
-      <c r="P14" s="16">
-        <f t="shared" si="1"/>
-        <v>9.6844396082698587</v>
-      </c>
-      <c r="R14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="S14" s="12">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <v>238</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O15" s="15">
-        <f>SUMIF(B:B,"zoanthids",C:C)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="S15" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>245</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="21">
-        <f t="shared" ref="O16:P16" si="2">SUM(O5:O15)</f>
-        <v>2757</v>
-      </c>
-      <c r="P16" s="22">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <v>250</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>260</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="12">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="K18" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L18" s="18"/>
-      <c r="N18" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <v>279</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L19" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="N19" s="21">
-        <f>C234-SUMIF(B:B,"missing",C:C)</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <v>290</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <v>299</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="12">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="N21" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
-        <v>318</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="12">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="7"/>
-      <c r="K22" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
-        <v>353</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="12">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="K23" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
-        <v>420</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
-        <v>428</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
-        <v>430</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="12">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L26" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
-        <v>475</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="12">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
-        <v>550</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="12">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
-        <v>583</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="12">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
-        <v>633</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="12">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
-        <v>656</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
-        <v>658</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
-        <v>665</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
-        <v>670</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="K34" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
-        <v>672</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
-        <v>675</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
-        <v>679</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="12">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
-        <v>705</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
-        <v>708</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="12">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
-        <v>725</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
-        <v>732</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
-        <v>737</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D42" s="17"/>
-      <c r="K42" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L42" s="1"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
-        <v>743</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
-        <v>747</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="12">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
-        <v>771</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="F45" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
-        <v>781</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L46" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
-        <v>789</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="12">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
-        <v>803</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="7">
-        <v>812</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="7">
-        <v>818</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="7">
-        <v>822</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="7">
-        <v>826</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="7">
-        <v>829</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="12">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="7">
-        <v>849</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="7">
-        <v>855</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="7">
-        <v>862</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="7">
-        <v>865</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="7">
-        <v>870</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D58" s="17"/>
-      <c r="K58" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="7">
-        <v>875</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="12">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="7">
-        <v>900</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" s="12">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="D60" s="17"/>
-      <c r="K60" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="7">
-        <v>924</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C61" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="7">
-        <v>927</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="12">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="D62" s="17"/>
-      <c r="K62" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L62" s="1"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="7">
-        <v>946</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="7">
-        <v>951</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64" s="12">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E64" s="7"/>
-      <c r="K64" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="7">
-        <v>966</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F65" s="18"/>
-      <c r="K65" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L65" s="18"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="7">
-        <v>971</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="7">
-        <v>974</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="12">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="7">
-        <v>1009</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C68" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K68" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="7">
-        <v>1013</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" s="12">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F69" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="K69" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="7">
-        <v>1084</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C70" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="7">
-        <v>1086</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" s="12">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K71" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="7">
-        <v>1151</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C72" s="12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="7">
-        <v>1163</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C73" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D73" s="17"/>
-      <c r="K73" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L73" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="7">
-        <v>1167</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="12">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K74" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="7">
-        <v>1189</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K75" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="7">
-        <v>1195</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C76" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D76" s="7"/>
-      <c r="K76" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="7">
-        <v>1198</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K77" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L77" s="7"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" s="7">
-        <v>1203</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C78" s="12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K78" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L78" s="7"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" s="7">
-        <v>1211</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C79" s="12">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K79" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="7">
-        <v>1234</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" s="12">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K80" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="7">
-        <v>1267</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C81" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K81" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="7">
-        <v>1271</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K82" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="7">
-        <v>1275</v>
-      </c>
-      <c r="B83" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="K83" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="7">
-        <v>1279</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C84" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K84" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="7">
-        <v>1285</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K85" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="7">
-        <v>1292</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K86" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="7">
-        <v>1297</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" s="12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K87" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="7">
-        <v>1309</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C88" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K88" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="7">
-        <v>1318</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C89" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K89" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="7">
-        <v>1325</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K90" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="7">
-        <v>1329</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K91" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="7">
-        <v>1333</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K92" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="7">
-        <v>1340</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" s="12">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K93" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="7">
-        <v>1356</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" s="12">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K94" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="7">
-        <v>1371</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K95" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="7">
-        <v>1373</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C96" s="12">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K96" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A97" s="7">
-        <v>1396</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C97" s="12">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K97" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A98" s="7">
-        <v>1410</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C98" s="12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D98" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K98" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A99" s="7">
-        <v>1418</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K99" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A100" s="12">
-        <v>1420</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C100" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K100" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A101" s="7">
-        <v>1423</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C101" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K101" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A102" s="7">
-        <v>1429</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K102" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A103" s="7">
-        <v>1435</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="12">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K103" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A104" s="7">
-        <v>1456</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C104" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K104" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A105" s="7">
-        <v>1461</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C105" s="12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K105" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A106" s="7">
-        <v>1469</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" s="12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K106" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A107" s="7">
-        <v>1477</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D107" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K107" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A108" s="7">
-        <v>1482</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C108" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K108" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A109" s="7">
-        <v>1488</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K109" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L109" s="19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A110" s="7">
-        <v>1492</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K110" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A111" s="7">
-        <v>1497</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C111" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K111" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A112" s="7">
-        <v>1499</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K112" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A113" s="7">
-        <v>1503</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C113" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K113" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A114" s="7">
-        <v>1510</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K114" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A115" s="7">
-        <v>1515</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C115" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E115" s="7"/>
-      <c r="K115" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A116" s="7">
-        <v>1520</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C116" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K116" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A117" s="7">
-        <v>1523</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C117" s="12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K117" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L117" s="19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A118" s="7">
-        <v>1531</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C118" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K118" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A119" s="7">
-        <v>1533</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C119" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K119" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A120" s="7">
-        <v>1536</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C120" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K120" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A121" s="7">
-        <v>1540</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C121" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K121" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A122" s="7">
-        <v>1545</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C122" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K122" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A123" s="7">
-        <v>1551</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C123" s="12">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K123" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A124" s="7">
-        <v>1579</v>
-      </c>
-      <c r="B124" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C124" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D124" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="K124" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L124" s="19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A125" s="7">
-        <v>1582</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C125" s="12">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K125" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A126" s="7">
-        <v>1617</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C126" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D126" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K126" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A127" s="7">
-        <v>1621</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C127" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D127" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K127" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A128" s="7">
-        <v>1625</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C128" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K128" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="7">
-        <v>1628</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C129" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K129" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="7">
-        <v>1633</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C130" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K130" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="7">
-        <v>1637</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C131" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K131" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="7">
-        <v>1641</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C132" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K132" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="7">
-        <v>1644</v>
-      </c>
-      <c r="B133" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C133" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D133" s="17"/>
-      <c r="K133" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="7">
-        <v>1646</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C134" s="12">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K134" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135" s="7">
-        <v>1668</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C135" s="12">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K135" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136" s="7">
-        <v>1706</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C136" s="12">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K136" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="7">
-        <v>1735</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C137" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K137" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" s="7">
-        <v>1740</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C138" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K138" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="7">
-        <v>1742</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C139" s="12">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K139" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140" s="7">
-        <v>1760</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C140" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K140" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141" s="7">
-        <v>1764</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C141" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K141" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A142" s="7">
-        <v>1769</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C142" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K142" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A143" s="7">
-        <v>1771</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C143" s="12">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K143" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A144" s="7">
-        <v>1800</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C144" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K144" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A145" s="7">
-        <v>1804</v>
-      </c>
-      <c r="B145" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C145" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D145" s="17"/>
-      <c r="K145" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A146" s="7">
-        <v>1806</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C146" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F146" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="K146" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A147" s="7">
-        <v>1810</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C147" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K147" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A148" s="7">
-        <v>1813</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C148" s="12">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K148" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A149" s="7">
-        <v>1830</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C149" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K149" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A150" s="7">
-        <v>1840</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C150" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K150" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A151" s="7">
-        <v>1849</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C151" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K151" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152" s="7">
-        <v>1859</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C152" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K152" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A153" s="7">
-        <v>1866</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C153" s="12">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K153" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A154" s="7">
-        <v>1888</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C154" s="12">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K154" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A155" s="7">
-        <v>1908</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C155" s="12">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="D155" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K155" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A156" s="7">
-        <v>1930</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C156" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K156" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A157" s="7">
-        <v>1936</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C157" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D157" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K157" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A158" s="7">
-        <v>1940</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C158" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D158" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K158" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A159" s="7">
-        <v>1945</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C159" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D159" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K159" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A160" s="7">
-        <v>1952</v>
-      </c>
-      <c r="B160" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C160" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D160" s="17"/>
-      <c r="K160" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A161" s="7">
-        <v>1955</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C161" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K161" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A162" s="7">
-        <v>1958</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C162" s="12">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K162" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A163" s="7">
-        <v>1999</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C163" s="12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K163" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L163" s="19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A164" s="7">
-        <v>2010</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C164" s="12">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K164" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A165" s="7">
-        <v>2031</v>
-      </c>
-      <c r="B165" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C165" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D165" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K165" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A166" s="7">
-        <v>2037</v>
-      </c>
-      <c r="B166" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C166" s="12">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="D166" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K166" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A167" s="12">
-        <v>2070</v>
-      </c>
-      <c r="B167" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C167" s="12">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D167" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K167" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A168" s="12">
-        <v>2099</v>
-      </c>
-      <c r="B168" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C168" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D168" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K168" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A169" s="12">
-        <v>2101</v>
-      </c>
-      <c r="B169" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C169" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D169" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K169" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A170" s="12">
-        <v>2108</v>
-      </c>
-      <c r="B170" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C170" s="12">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="D170" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K170" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A171" s="12">
-        <v>2132</v>
-      </c>
-      <c r="B171" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C171" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D171" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K171" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A172" s="12">
-        <v>2139</v>
-      </c>
-      <c r="B172" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C172" s="12">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="D172" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K172" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A173" s="12">
-        <v>2176</v>
-      </c>
-      <c r="B173" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C173" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D173" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K173" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A174" s="12">
-        <v>2181</v>
-      </c>
-      <c r="B174" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C174" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D174" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K174" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A175" s="12">
-        <v>2186</v>
-      </c>
-      <c r="B175" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C175" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D175" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="K175" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A176" s="12">
-        <v>2188</v>
-      </c>
-      <c r="B176" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C176" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D176" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K176" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A177" s="12">
-        <v>2195</v>
-      </c>
-      <c r="B177" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C177" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D177" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K177" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A178" s="12">
-        <v>2197</v>
-      </c>
-      <c r="B178" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C178" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D178" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K178" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A179" s="12">
-        <v>2199</v>
-      </c>
-      <c r="B179" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C179" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D179" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K179" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A180" s="12">
-        <v>2201</v>
-      </c>
-      <c r="B180" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C180" s="12">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="D180" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K180" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A181" s="12">
-        <v>2270</v>
-      </c>
-      <c r="B181" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C181" s="12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D181" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K181" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A182" s="12">
-        <v>2278</v>
-      </c>
-      <c r="B182" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C182" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D182" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K182" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A183" s="12">
-        <v>2282</v>
-      </c>
-      <c r="B183" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C183" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D183" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K183" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A184" s="12">
-        <v>2291</v>
-      </c>
-      <c r="B184" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C184" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D184" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K184" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A185" s="12">
-        <v>2297</v>
-      </c>
-      <c r="B185" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C185" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D185" s="17"/>
-      <c r="K185" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A186" s="12">
-        <v>2300</v>
-      </c>
-      <c r="B186" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C186" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D186" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K186" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A187" s="12">
-        <v>2301</v>
-      </c>
-      <c r="B187" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C187" s="12">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="D187" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K187" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A188" s="12">
-        <v>2341</v>
-      </c>
-      <c r="B188" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C188" s="12">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="D188" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K188" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A189" s="12">
-        <v>2400</v>
-      </c>
-      <c r="B189" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C189" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D189" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K189" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A190" s="12">
-        <v>2407</v>
-      </c>
-      <c r="B190" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C190" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D190" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K190" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A191" s="12">
-        <v>2413</v>
-      </c>
-      <c r="B191" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C191" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D191" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K191" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A192" s="12">
-        <v>2423</v>
-      </c>
-      <c r="B192" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C192" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D192" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K192" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A193" s="12">
-        <v>2428</v>
-      </c>
-      <c r="B193" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C193" s="12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D193" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K193" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A194" s="12">
-        <v>2440</v>
-      </c>
-      <c r="B194" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C194" s="12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D194" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K194" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A195" s="12">
-        <v>2451</v>
-      </c>
-      <c r="B195" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C195" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D195" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K195" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A196" s="12">
-        <v>2454</v>
-      </c>
-      <c r="B196" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C196" s="12">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="D196" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K196" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A197" s="12">
-        <v>2480</v>
-      </c>
-      <c r="B197" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C197" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D197" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K197" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A198" s="12">
-        <v>2487</v>
-      </c>
-      <c r="B198" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C198" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D198" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K198" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A199" s="12">
-        <v>2493</v>
-      </c>
-      <c r="B199" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C199" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D199" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K199" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A200" s="12">
-        <v>2494</v>
-      </c>
-      <c r="B200" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C200" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D200" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K200" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A201" s="12">
-        <v>2504</v>
-      </c>
-      <c r="B201" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C201" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D201" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K201" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A202" s="12">
-        <v>2507</v>
-      </c>
-      <c r="B202" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C202" s="12">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="D202" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K202" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A203" s="12">
-        <v>2538</v>
-      </c>
-      <c r="B203" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C203" s="12">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="D203" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K203" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A204" s="12">
-        <v>2551</v>
-      </c>
-      <c r="B204" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C204" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D204" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K204" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A205" s="12">
-        <v>2553</v>
-      </c>
-      <c r="B205" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C205" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D205" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K205" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A206" s="12">
-        <v>2558</v>
-      </c>
-      <c r="B206" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C206" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D206" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K206" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A207" s="12">
-        <v>2563</v>
-      </c>
-      <c r="B207" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C207" s="12">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="D207" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K207" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A208" s="12">
-        <v>2582</v>
-      </c>
-      <c r="B208" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C208" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D208" s="17"/>
-      <c r="K208" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A209" s="12">
-        <v>2586</v>
-      </c>
-      <c r="B209" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C209" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D209" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K209" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A210" s="12">
-        <v>2589</v>
-      </c>
-      <c r="B210" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C210" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D210" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K210" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A211" s="12">
-        <v>2595</v>
-      </c>
-      <c r="B211" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C211" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D211" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K211" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A212" s="12">
-        <v>2599</v>
-      </c>
-      <c r="B212" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C212" s="12">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="D212" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K212" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A213" s="12">
-        <v>2617</v>
-      </c>
-      <c r="B213" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C213" s="12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D213" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K213" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A214" s="12">
-        <v>2625</v>
-      </c>
-      <c r="B214" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C214" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D214" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K214" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A215" s="12">
-        <v>2635</v>
-      </c>
-      <c r="B215" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C215" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D215" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K215" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A216" s="12">
-        <v>2641</v>
-      </c>
-      <c r="B216" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C216" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D216" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K216" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A217" s="12">
-        <v>2642</v>
-      </c>
-      <c r="B217" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C217" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D217" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K217" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A218" s="12">
-        <v>2643</v>
-      </c>
-      <c r="B218" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C218" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D218" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K218" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A219" s="12">
-        <v>2649</v>
-      </c>
-      <c r="B219" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C219" s="12">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="D219" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K219" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L219" s="19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A220" s="12">
-        <v>2670</v>
-      </c>
-      <c r="B220" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C220" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D220" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K220" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A221" s="12">
-        <v>2675</v>
-      </c>
-      <c r="B221" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C221" s="12">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D221" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K221" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A222" s="12">
-        <v>2690</v>
-      </c>
-      <c r="B222" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C222" s="12">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="D222" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K222" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A223" s="12">
-        <v>2707</v>
-      </c>
-      <c r="B223" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C223" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D223" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K223" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A224" s="12">
-        <v>2710</v>
-      </c>
-      <c r="B224" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C224" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D224" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K224" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A225" s="12">
-        <v>2714</v>
-      </c>
-      <c r="B225" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C225" s="12">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="D225" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K225" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A226" s="12">
-        <v>2746</v>
-      </c>
-      <c r="B226" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C226" s="12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D226" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K226" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A227" s="12">
-        <v>2757</v>
-      </c>
-      <c r="B227" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C227" s="12">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="D227" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K227" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A228" s="12">
-        <v>2770</v>
-      </c>
-      <c r="B228" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C228" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D228" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K228" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A229" s="12">
-        <v>2774</v>
-      </c>
-      <c r="B229" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C229" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D229" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K229" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A230" s="12">
-        <v>2783</v>
-      </c>
-      <c r="B230" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C230" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D230" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K230" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A231" s="12">
-        <v>2787</v>
-      </c>
-      <c r="B231" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C231" s="12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D231" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K231" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A232" s="12">
-        <v>2798</v>
-      </c>
-      <c r="B232" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C232" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D232" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K232" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A233" s="12">
-        <v>2802</v>
-      </c>
-      <c r="B233" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C233" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D233" s="17"/>
-      <c r="K233" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A234" s="12">
-        <v>2807</v>
-      </c>
-      <c r="C234" s="12"/>
-      <c r="K234" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A235" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:X269"/>
-  <sheetViews>
-    <sheetView topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="C268" sqref="C268"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.59765625" customWidth="1"/>
-    <col min="2" max="2" width="19.59765625" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" customWidth="1"/>
-    <col min="4" max="4" width="15.69921875" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="8.59765625" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.69921875" customWidth="1"/>
-    <col min="9" max="10" width="8.59765625" customWidth="1"/>
-    <col min="11" max="11" width="13.3984375" customWidth="1"/>
-    <col min="12" max="14" width="8.59765625" customWidth="1"/>
-    <col min="16" max="16" width="8.796875" customWidth="1"/>
-    <col min="17" max="25" width="8.59765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="4">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="R3" s="7"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>26</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="12">
-        <f t="shared" ref="C5:C259" si="0">A6-A5</f>
-        <v>6</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="15">
-        <f>SUMIF(B:B,"hard_coral",C:C)</f>
-        <v>1493</v>
-      </c>
-      <c r="P5" s="16">
-        <f t="shared" ref="P5:P15" si="1">(O5/$O$16)*100</f>
-        <v>55.255366395262776</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="S5" s="12">
-        <v>892</v>
-      </c>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
         <v>32</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -8899,7 +8686,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>748</v>
       </c>
@@ -8910,7 +8697,9 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="D67" s="17"/>
+      <c r="D67" s="30" t="s">
+        <v>27</v>
+      </c>
       <c r="K67" s="1" t="s">
         <v>195</v>
       </c>
@@ -10700,7 +10489,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="12">
         <v>1784</v>
       </c>
@@ -10711,7 +10500,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D166" s="17"/>
+      <c r="D166" s="30" t="s">
+        <v>22</v>
+      </c>
       <c r="K166" s="7" t="s">
         <v>243</v>
       </c>
@@ -12543,6 +12334,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A4:X269" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12554,8 +12346,8 @@
   </sheetPr>
   <dimension ref="A1:X273"/>
   <sheetViews>
-    <sheetView topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="E223" sqref="E223"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D168" sqref="D168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15861,7 +15653,9 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D168" s="19"/>
+      <c r="D168" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="K168" s="12" t="s">
         <v>364</v>
       </c>
@@ -17755,6 +17549,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A4:X273" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17766,8 +17561,8 @@
   </sheetPr>
   <dimension ref="A1:X252"/>
   <sheetViews>
-    <sheetView topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -22635,6 +22430,7 @@
       <c r="Q252" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:X250" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22646,8 +22442,8 @@
   </sheetPr>
   <dimension ref="A1:X265"/>
   <sheetViews>
-    <sheetView topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="C264" sqref="C264"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D266" sqref="D266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -22797,11 +22593,11 @@
       </c>
       <c r="O5" s="15">
         <f>SUMIF(B:B,"hard_coral",C:C)</f>
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="P5" s="16">
         <f t="shared" ref="P5:P15" si="1">(O5/$O$16)*100</f>
-        <v>44.771371769383698</v>
+        <v>44.532803180914513</v>
       </c>
       <c r="R5" s="12" t="s">
         <v>11</v>
@@ -22872,11 +22668,11 @@
       </c>
       <c r="O7" s="15">
         <f>SUMIF(B:B,"soft_coral",C:C)</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="P7" s="16">
         <f t="shared" si="1"/>
-        <v>0.87475149105367789</v>
+        <v>1.1133200795228628</v>
       </c>
       <c r="R7" s="7" t="s">
         <v>9</v>
@@ -22890,7 +22686,7 @@
         <v>208</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="12">
         <f t="shared" si="0"/>
@@ -23194,7 +22990,7 @@
       </c>
       <c r="P16" s="22">
         <f t="shared" si="2"/>
-        <v>99.999999999999986</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -25873,6 +25669,9 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="D161" t="s">
+        <v>25</v>
+      </c>
       <c r="K161" s="12" t="s">
         <v>615</v>
       </c>
@@ -27715,6 +27514,9 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
+      <c r="D263" t="s">
+        <v>25</v>
+      </c>
       <c r="K263" s="12" t="s">
         <v>664</v>
       </c>
@@ -27731,6 +27533,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A4:X265" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -27742,8 +27545,8 @@
   </sheetPr>
   <dimension ref="A1:Y279"/>
   <sheetViews>
-    <sheetView topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="A262" sqref="A262:XFD262"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D280" sqref="D280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -29187,7 +28990,9 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D62" s="19"/>
+      <c r="D62" s="31" t="s">
+        <v>793</v>
+      </c>
       <c r="K62" s="7" t="s">
         <v>695</v>
       </c>
@@ -30689,7 +30494,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="7">
         <v>1443</v>
       </c>
@@ -30700,7 +30505,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D144" s="7"/>
+      <c r="D144" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="K144" s="1" t="s">
         <v>734</v>
       </c>
@@ -33130,6 +32937,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A4:Y279" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>